--- a/biology/Médecine/Hôpital_militaire_de_Vračar/Hôpital_militaire_de_Vračar.xlsx
+++ b/biology/Médecine/Hôpital_militaire_de_Vračar/Hôpital_militaire_de_Vračar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_militaire_de_Vra%C4%8Dar</t>
+          <t>Hôpital_militaire_de_Vračar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital militaire de Vračar (en serbe cyrillique : Војна болница на Врачару ; en serbe latin : Vojna bolnica na Vračaru) est situé à Belgrade, la capitale de la Serbie, dans la municipalité urbaine de Savski venac. Construit entre 1904 et 1909, il est inscrit sur la liste des biens culturels de la Ville de Belgrade[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital militaire de Vračar (en serbe cyrillique : Војна болница на Врачару ; en serbe latin : Vojna bolnica na Vračaru) est situé à Belgrade, la capitale de la Serbie, dans la municipalité urbaine de Savski venac. Construit entre 1904 et 1909, il est inscrit sur la liste des biens culturels de la Ville de Belgrade.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_militaire_de_Vra%C4%8Dar</t>
+          <t>Hôpital_militaire_de_Vračar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital militaire, situé 2 rue Pasterova, a été construit entre 1904 et 1909 selon les plans de l'architecte Danilo Vladisavljević. À l'époque de la construction, l'agencement des divers pavillons et leur disposition relative dans des parcs et jardins représentaient une conception moderne d'architecture appliquée et d'urbanisme. La conception fonctionnelle a été pensée selon les consignes des services sanitaires, tels qu'ils fonctionnaient au début du XXe siècle et l'ensemble était considéré, à l'époque, comme l'hôpital le plus avancé des Balkans[1].
-Sur le plan architectural, tous les pavillons relèvent du style néoromantique, particulièrement lisible dans le bâtiment administratif[1].
-L'hôpital revêt une grande importance sur le plan historique, par le rôle qu'il a joué dans les Guerres des Balkans et au cours de la Première Guerre mondiale, notamment en tant qu'institution médicale animée par des médecins renommés ; il a également joué un rôle important dans le développement des services médicaux en Serbie et à Belgrade et, sur le plan éducatif, a constitué le noyau de la Faculté de médecine de l'université de Belgrade[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital militaire, situé 2 rue Pasterova, a été construit entre 1904 et 1909 selon les plans de l'architecte Danilo Vladisavljević. À l'époque de la construction, l'agencement des divers pavillons et leur disposition relative dans des parcs et jardins représentaient une conception moderne d'architecture appliquée et d'urbanisme. La conception fonctionnelle a été pensée selon les consignes des services sanitaires, tels qu'ils fonctionnaient au début du XXe siècle et l'ensemble était considéré, à l'époque, comme l'hôpital le plus avancé des Balkans.
+Sur le plan architectural, tous les pavillons relèvent du style néoromantique, particulièrement lisible dans le bâtiment administratif.
+L'hôpital revêt une grande importance sur le plan historique, par le rôle qu'il a joué dans les Guerres des Balkans et au cours de la Première Guerre mondiale, notamment en tant qu'institution médicale animée par des médecins renommés ; il a également joué un rôle important dans le développement des services médicaux en Serbie et à Belgrade et, sur le plan éducatif, a constitué le noyau de la Faculté de médecine de l'université de Belgrade.
 </t>
         </is>
       </c>
